--- a/data/450_D_label_case.xlsx
+++ b/data/450_D_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,6 +1574,1118 @@
         <v>0.001555030810813392</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.001559459813864486</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.0135</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.001572597233689867</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.0224</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.001581775000577326</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.0314</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.001593156518746059</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.0404</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.001599866519049567</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.0493</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.001613623936432257</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.0583</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.001634655813608618</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.0673</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.00164995389260198</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.0762</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.001667100613371819</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.0852</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.001680498577469096</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.0941</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.00170272168885277</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.001734579061915683</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.001762118001935096</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.1209</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.001791357963478566</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.1298</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.00181585421958293</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.1387</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.001849731853247878</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.1476</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.00189333437338081</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.1565</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.001928796583762846</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.1653</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.001964428572179947</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.1741</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.001995416826060647</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.002038335126645887</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.1918</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.002095042135182359</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.2007</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.002146722351380043</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.2094</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.002194588409255855</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.2182</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.00223556552369384</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.2269</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.00228838444155088</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.2357</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.002355308450806522</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.2445</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.002414363064592375</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.2531</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.002472678657336084</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.2618</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.002521765756267092</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.2705</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.002583596404751987</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.2791</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.002661946281252589</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.2878</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.002732753448261814</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.2964</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.002797548387966927</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.3049</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.002853706553708401</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.3135</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.002925688853872939</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.322</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0030169390405142</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.3306</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.003097387714316169</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.0031654219759327</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.3475</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.003220271060758359</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.3559</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.003290611541948118</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.3644</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.003380089279058645</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.3728</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.003454468560354109</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.3811</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.003525790324438975</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.3894</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.003585335732544387</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.3977</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.003667517635170982</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.003776866130240059</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.4143</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.003873316411129494</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.4225</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.003957703404011421</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.4306</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.004026217639702498</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.4388</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.004117735600855954</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.4469</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.004238059388517844</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.4551</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.004342722010000726</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.4631</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.004437080205347807</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.4711</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.004516586429004241</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.4791</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.00462301116456738</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.4871</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.004762442641459034</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.4951</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.004885908321782638</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.5029</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.00499066783874948</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.5107</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.005079263584726212</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.5185</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.005201591694761346</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.5264</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.005363708710085827</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.5342</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.005505133340975172</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.5418</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.005630925619508568</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.5495</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.005736193324675778</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.5571</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.005876803857140468</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.5648</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.006061778868612564</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1.5724</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.006227335436234571</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1.5799</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.006372393948361383</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1.5873</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.006492160928493457</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1.5948</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.006654500003972778</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1.6023</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.006870646075535724</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1.6097</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.007063798434391949</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.007235664671681791</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1.6243</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.007375210008608107</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1.6315</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.007562034709553482</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1.6388</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.007812904627226084</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.008043628604251786</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1.6531</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.008257314088287396</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1.6602</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.008439776893600726</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.6672</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.008677956418645653</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.6743</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.008986734494067505</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.6814</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.00926316055847441</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.6882</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.009517280299017591</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1.6951</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.00973085043628312</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.7019</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.01001330829981892</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.7088</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.01038840537488596</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1.7157</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.01073745670221645</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1.7223</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.01105773258511332</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1.7289</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.01133339915956717</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.7356</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.01169425978660583</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1.7422</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.01216979425877388</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.7489</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.01261673238143388</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.7553</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.01302495504831986</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1.7618</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.01339210770497944</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.7682</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.01386955720359027</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.7746</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.01449228673064139</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.7811</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.0150858933473518</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.7873</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.01564078084888831</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.7935</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.01614698104030759</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1.7997</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.01680457020423689</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.01766407272724863</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1.8122</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.01850235965862485</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.01927610486066784</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1.8242</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.01998532769581263</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1.8302</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.02089184248761714</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1.8362</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.02207878317907735</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1.8422</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.02327626867679316</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.02442632890733699</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1.8538</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.02549392237335375</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.8596</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.02686703795916605</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.8654</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.02868887629552023</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.8712</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.03060106686082192</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1.8767</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.03242063776473964</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1.8823</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.03415530973529002</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.8879</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.0364030792423546</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1.8935</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.03941079908880153</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.04268544158025</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1.9044</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.0458055763415984</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1.9098</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.04884488619272959</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1.9151</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.05278063400860736</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1.9205</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.0580901576617375</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1.9258</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.06415172443910781</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.06962959144876515</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1.9361</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.07485501913531409</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1.9413</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.08145134370772367</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1.9464</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.09039446565521046</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1.9516</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.1009238970184505</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1.9565</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.1086024753393548</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.9615</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.1144306284295545</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1.9664</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.1211771674551615</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1.9714</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.130790129534659</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.9763</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.1376271608907788</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.981</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.1425766353620685</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.9811</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.1330066012928998</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.9858</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.1325019774700207</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1.9905</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.1510280071933844</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1.9953</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.2011241877783449</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.2258691197601374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
